--- a/src/test/resources/testdata/EasyQuoteL8.xlsx
+++ b/src/test/resources/testdata/EasyQuoteL8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="72">
   <si>
     <t>Source</t>
   </si>
@@ -196,6 +196,42 @@
   </si>
   <si>
     <t>51.45</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -718,11 +754,11 @@
       <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4">
-        <v>180</v>
-      </c>
-      <c r="F2" s="3">
-        <v>7</v>
+      <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>28</v>
@@ -774,11 +810,11 @@
       <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4">
-        <v>250</v>
-      </c>
-      <c r="F3" s="3">
-        <v>7</v>
+      <c r="E3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>28</v>
@@ -830,11 +866,11 @@
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>7</v>
+      <c r="E4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>28</v>
@@ -886,11 +922,11 @@
       <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>7</v>
+      <c r="E5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>28</v>
@@ -917,7 +953,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>33</v>
@@ -926,7 +962,7 @@
         <v>33</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1">
@@ -942,11 +978,11 @@
       <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
+      <c r="E6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>28</v>
@@ -998,14 +1034,14 @@
       <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
+      <c r="E7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>48</v>
@@ -1054,14 +1090,14 @@
       <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>51</v>
@@ -1110,14 +1146,14 @@
       <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4">
-        <v>54</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
+      <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>54</v>
@@ -1166,14 +1202,14 @@
       <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="E10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>57</v>
